--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2320674.096411084</v>
+        <v>2397861.701203164</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903701</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768292</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6694028.015002576</v>
+        <v>6893970.663556641</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>256.3095357063075</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>84.62560901147528</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -874,13 +876,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>209.4066453920429</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>88.33325317843779</v>
       </c>
       <c r="E5" t="n">
-        <v>306.5133463883749</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.1204870741752</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -1066,10 +1068,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1136,19 +1138,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>7.403252162746612</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1184,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1193,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>361.5592026662934</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>98.40348751227808</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>50.25897109129162</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1540,13 +1542,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>35.73692418651449</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.421695385058</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>325.083433205658</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1664,16 +1666,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1767,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>85.25432609134864</v>
+        <v>13.88126300749902</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>302.1350072502081</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>39.64108301376439</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1907,7 +1909,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2011,16 +2013,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>144.6819500972096</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>13.88126300749902</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>95.54331465629893</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>90.1405472641183</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>267.6295396397329</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>9.982115371767776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>267.38583728833</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>317.5475256392241</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2615,7 +2617,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>337.8578625689825</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2713,13 +2715,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>81.66286536895133</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>56.42364320393576</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>351.2228221674562</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2804,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>92.0578590448067</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>76.43104772188485</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>307.6908193123841</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>141.2399144628151</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>256.845439587428</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>354.2586798869624</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>23.3347735632112</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3509,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>53.20093248929926</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>39.93142548241784</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3666,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>30.4139356482173</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>143.4694707828847</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,13 +3742,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3755,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3803,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>13.93989064565946</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3907,16 +3909,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.2402393903832</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3986,16 +3988,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>56.55785978442675</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4043,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>101.3308736018835</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>159.6852324269196</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>812.5511772907195</v>
+        <v>973.8117188815472</v>
       </c>
       <c r="C2" t="n">
-        <v>806.4669906443936</v>
+        <v>967.7275322352214</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0030607374541</v>
+        <v>967.3040063686859</v>
       </c>
       <c r="E2" t="n">
-        <v>391.7032492947549</v>
+        <v>957.0041949259867</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>535.9737828796742</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>127.2454987725064</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4334,19 +4336,19 @@
         <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4358,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610684</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W2" t="n">
-        <v>1219.375350745852</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X2" t="n">
-        <v>818.7319529148049</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="Y2" t="n">
-        <v>818.7319529148049</v>
+        <v>979.9924945056326</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4418,16 @@
         <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>650.9034636208218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>650.9034636208218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>650.9034636208218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>489.9926484891412</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>862.4253276531883</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>862.4253276531883</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>862.4253276531883</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X4" t="n">
-        <v>650.9034636208218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y4" t="n">
-        <v>650.9034636208218</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.033101815613</v>
+        <v>1063.485050816083</v>
       </c>
       <c r="C5" t="n">
-        <v>1671.948915169287</v>
+        <v>653.3604601293526</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.484985262347</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>957.8755444660092</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>536.8451324196967</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
         <v>128.1168483125289</v>
@@ -4568,22 +4570,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N5" t="n">
-        <v>1054.568412147452</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767164</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.3070266506913</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C7" t="n">
-        <v>367.3070266506913</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D7" t="n">
-        <v>367.3070266506913</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4756,19 +4758,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1288.365834796576</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1288.365834796576</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1009.29617030545</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>770.9523081651339</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y7" t="n">
-        <v>546.2166095538986</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>570.6426643811656</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>160.5180736944356</v>
+        <v>1330.81452560638</v>
       </c>
       <c r="D8" t="n">
-        <v>160.0945478279002</v>
+        <v>1323.336493118757</v>
       </c>
       <c r="E8" t="n">
-        <v>149.794736385201</v>
+        <v>908.9962776356538</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>487.9658655893414</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1014.011766457887</v>
+        <v>1236.881458916953</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>1695.912714533713</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>1346.075159870194</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>1346.075159870194</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>980.863844045655</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>980.863844045655</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>751.4208778585605</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>751.4208778585605</v>
+        <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>1268.263812524886</v>
+        <v>1620.763989498275</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>536.9842286343843</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="C10" t="n">
-        <v>365.8908561961008</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>206.3962115190108</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.615243227154</v>
+        <v>1375.867883064921</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.817095773278</v>
+        <v>1093.069735611045</v>
       </c>
       <c r="V10" t="n">
-        <v>1048.817095773278</v>
+        <v>819.1839905505669</v>
       </c>
       <c r="W10" t="n">
-        <v>1048.817095773278</v>
+        <v>540.1143260594413</v>
       </c>
       <c r="X10" t="n">
-        <v>949.419633639664</v>
+        <v>301.7704639191247</v>
       </c>
       <c r="Y10" t="n">
-        <v>724.6839350284287</v>
+        <v>86.01772546736876</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2531.835765352786</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C11" t="n">
-        <v>2121.711174666056</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D11" t="n">
-        <v>1717.247244759116</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E11" t="n">
-        <v>1302.907029276013</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F11" t="n">
-        <v>881.8766172297003</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G11" t="n">
-        <v>473.1483331225325</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H11" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
-        <v>1300.112182523415</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>2076.430773515169</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2829.611790153787</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3473.242646570892</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3473.242646570892</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3794.403653366184</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3794.403653366184</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V11" t="n">
-        <v>3794.403653366184</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W11" t="n">
-        <v>3743.637015900233</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X11" t="n">
-        <v>3342.993618069185</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y11" t="n">
-        <v>2942.056945017275</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>75.88807306732367</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>75.88807306732367</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M12" t="n">
-        <v>75.88807306732367</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N12" t="n">
-        <v>856.7142858833993</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O12" t="n">
-        <v>1560.671376429294</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1165.22192336846</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C13" t="n">
-        <v>994.1285509301767</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D13" t="n">
-        <v>834.6339062530867</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E13" t="n">
-        <v>673.7230911214062</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F13" t="n">
-        <v>509.0919652319975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>341.8415741575409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>192.2341189629975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1520.014251363573</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1520.014251363573</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U13" t="n">
-        <v>1520.014251363573</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V13" t="n">
-        <v>1520.014251363573</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="W13" t="n">
-        <v>1520.014251363573</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X13" t="n">
-        <v>1520.014251363573</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y13" t="n">
-        <v>1352.921629762505</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2045.614349007255</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>2045.614349007255</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1717.247244759116</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>1302.907029276013</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>881.8766172297003</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>473.1483331225325</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2357.143036448109</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>3110.324053086727</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3753.847007676619</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2830.018047703134</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W14" t="n">
-        <v>2446.257746838303</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2045.614349007255</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2045.614349007255</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>75.88807306732367</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>918.8651537618904</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N15" t="n">
-        <v>1792.523245873508</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.88807306732367</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C16" t="n">
-        <v>75.88807306732367</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>75.88807306732367</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>75.88807306732367</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>75.88807306732367</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>75.88807306732367</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1519.171488787822</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="T16" t="n">
-        <v>1279.622749764524</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="U16" t="n">
-        <v>1279.622749764524</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="V16" t="n">
-        <v>1005.737004704046</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="W16" t="n">
-        <v>726.66734021292</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="X16" t="n">
-        <v>488.3234780726034</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="Y16" t="n">
-        <v>263.5877794613681</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2359.298219196301</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.173628509571</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D17" t="n">
-        <v>1544.709698602632</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E17" t="n">
-        <v>1130.369483119528</v>
+        <v>1273.952389210086</v>
       </c>
       <c r="F17" t="n">
-        <v>709.339071073216</v>
+        <v>852.921977163774</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>444.1936930566062</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>133.2851956843242</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5546,19 +5548,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3571.099469743748</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.456071912701</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y17" t="n">
-        <v>2769.519398860791</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>549.0499539559215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>549.0499539559215</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>880.4933690687955</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C19" t="n">
-        <v>709.399996630512</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>549.905351953422</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>388.9945368217415</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>388.9945368217415</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="W19" t="n">
-        <v>1343.572929820347</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="X19" t="n">
-        <v>1105.229067680031</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="Y19" t="n">
-        <v>880.4933690687955</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4058.401178705436</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W20" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5837,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3303.879360348573</v>
+        <v>1032.970092797216</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>702.3820756818425</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4565.676485888413</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>4282.878338434538</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V22" t="n">
-        <v>4008.99259337406</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W22" t="n">
-        <v>3729.922928882934</v>
+        <v>1257.705791408451</v>
       </c>
       <c r="X22" t="n">
-        <v>3491.579066742617</v>
+        <v>1257.705791408451</v>
       </c>
       <c r="Y22" t="n">
-        <v>3491.579066742617</v>
+        <v>1032.970092797216</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G23" t="n">
         <v>404.1521950629048</v>
@@ -5990,7 +5992,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4408.238733368956</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V23" t="n">
-        <v>4058.401178705436</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="24">
@@ -6078,7 +6080,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.2436976906228</v>
+        <v>369.2801436008075</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>369.2801436008075</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>369.2801436008075</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>369.2801436008075</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>369.2801436008075</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>1100.295707834299</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V25" t="n">
-        <v>826.4099627738212</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W25" t="n">
-        <v>556.3232584421747</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X25" t="n">
-        <v>317.9793963018581</v>
+        <v>594.0158422120428</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.2436976906228</v>
+        <v>369.2801436008075</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D26" t="n">
         <v>1734.602869382415</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3671.526537262299</v>
+        <v>3356.528710616592</v>
       </c>
       <c r="X26" t="n">
-        <v>3270.883139431251</v>
+        <v>2955.885312785545</v>
       </c>
       <c r="Y26" t="n">
-        <v>2869.946466379341</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6311,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>1578.027001052593</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
-        <v>1578.027001052593</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3905.261991942426</v>
+        <v>606.3160674671693</v>
       </c>
       <c r="C28" t="n">
-        <v>3734.168619504142</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="D28" t="n">
-        <v>3574.673974827052</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="E28" t="n">
-        <v>3413.763159695372</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F28" t="n">
-        <v>3249.132033805963</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G28" t="n">
-        <v>3249.132033805963</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>4605.191305537265</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T28" t="n">
-        <v>4605.191305537265</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U28" t="n">
-        <v>4605.191305537265</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V28" t="n">
-        <v>4331.305560476787</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="W28" t="n">
-        <v>4331.305560476787</v>
+        <v>1018.751472472449</v>
       </c>
       <c r="X28" t="n">
-        <v>4092.96169833647</v>
+        <v>1018.751472472449</v>
       </c>
       <c r="Y28" t="n">
-        <v>4092.96169833647</v>
+        <v>794.0157738612137</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6445,16 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6546,16 +6548,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>754.331869609911</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>3775.185775200379</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>3614.274960068698</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S31" t="n">
-        <v>1545.439515804519</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T31" t="n">
-        <v>1305.890776781221</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U31" t="n">
-        <v>1023.092629327345</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V31" t="n">
-        <v>1023.092629327345</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="W31" t="n">
-        <v>744.0229648362191</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="X31" t="n">
-        <v>505.6791026959025</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="Y31" t="n">
-        <v>280.9434040846672</v>
+        <v>3868.173511609275</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E32" t="n">
         <v>1233.910891216385</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4408.238733368956</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V32" t="n">
-        <v>4058.401178705436</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="33">
@@ -6783,13 +6785,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3766.951400422813</v>
+        <v>851.989530876386</v>
       </c>
       <c r="C34" t="n">
-        <v>3595.85802798453</v>
+        <v>851.989530876386</v>
       </c>
       <c r="D34" t="n">
-        <v>3436.36338330744</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E34" t="n">
-        <v>3275.452568175759</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4475.79311641105</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>4475.79311641105</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U34" t="n">
-        <v>4192.994968957174</v>
+        <v>851.989530876386</v>
       </c>
       <c r="V34" t="n">
-        <v>4192.994968957174</v>
+        <v>851.989530876386</v>
       </c>
       <c r="W34" t="n">
-        <v>4192.994968957174</v>
+        <v>851.989530876386</v>
       </c>
       <c r="X34" t="n">
-        <v>3954.651106816857</v>
+        <v>851.989530876386</v>
       </c>
       <c r="Y34" t="n">
-        <v>3954.651106816857</v>
+        <v>851.989530876386</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="36">
@@ -7020,19 +7022,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>385.2054556740427</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.182536368609</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N36" t="n">
-        <v>1228.182536368609</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7123,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1383.093855288175</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U37" t="n">
-        <v>1100.295707834299</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V37" t="n">
-        <v>1100.295707834299</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W37" t="n">
-        <v>1100.295707834299</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X37" t="n">
-        <v>1100.295707834299</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y37" t="n">
-        <v>875.560009223064</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1287.649206862142</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>866.6187948158295</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>457.8905107086616</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>146.9820133363796</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7217,7 +7219,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7259,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>704.368908940975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>704.368908940975</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.027001052593</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>454.5528619254077</v>
+        <v>596.2185870927716</v>
       </c>
       <c r="C40" t="n">
-        <v>283.4594894871242</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D40" t="n">
-        <v>123.9648448100342</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E40" t="n">
-        <v>123.9648448100342</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9648448100342</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>123.9648448100342</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>123.9648448100342</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U40" t="n">
-        <v>1196.702087168085</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V40" t="n">
-        <v>1196.702087168085</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W40" t="n">
-        <v>917.6324226769595</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="X40" t="n">
-        <v>679.288560536643</v>
+        <v>596.2185870927716</v>
       </c>
       <c r="Y40" t="n">
-        <v>454.5528619254077</v>
+        <v>596.2185870927716</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1621.019196500025</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C41" t="n">
-        <v>1621.019196500025</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D41" t="n">
-        <v>1216.555266593086</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.555266593086</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F41" t="n">
-        <v>795.5248545467734</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G41" t="n">
-        <v>386.7965704396057</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1092.116491399555</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1868.435082391309</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2621.616099029927</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3265.246955447032</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3659.122578160285</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>3436.916094107144</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>3179.855602366654</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V41" t="n">
-        <v>2830.018047703134</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W41" t="n">
-        <v>2446.257746838303</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X41" t="n">
-        <v>2432.177049216425</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2031.240376164515</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>531.6943293326224</v>
+        <v>212.9817385874103</v>
       </c>
       <c r="L42" t="n">
-        <v>531.6943293326224</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M42" t="n">
-        <v>898.8747121222223</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N42" t="n">
-        <v>1772.53280423384</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O42" t="n">
-        <v>1772.53280423384</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
-        <v>1772.53280423384</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>716.9943605089211</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C43" t="n">
-        <v>545.9009880706376</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D43" t="n">
-        <v>386.4063433935476</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E43" t="n">
-        <v>225.495528261867</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F43" t="n">
-        <v>225.495528261867</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>225.495528261867</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1418.895201568084</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1179.346462544786</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1179.346462544786</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>1179.346462544786</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>1179.346462544786</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X43" t="n">
-        <v>941.7300591201564</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y43" t="n">
-        <v>716.9943605089211</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1713.545093251264</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1303.420502564534</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>898.9565726575947</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>484.6163571744915</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>484.6163571744915</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>75.88807306732367</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2357.143036448109</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>3110.324053086727</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3753.954909503832</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3737.274502068783</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3515.068018015642</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U44" t="n">
-        <v>3258.007526275152</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V44" t="n">
-        <v>2908.169971611633</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W44" t="n">
-        <v>2524.409670746801</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>2123.766272915754</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2123.766272915754</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>544.7620862603114</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N45" t="n">
-        <v>1418.420178371929</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>512.9349465958244</v>
+        <v>4163.563440859426</v>
       </c>
       <c r="C46" t="n">
-        <v>341.8415741575409</v>
+        <v>3992.470068421143</v>
       </c>
       <c r="D46" t="n">
-        <v>341.8415741575409</v>
+        <v>3832.975423744052</v>
       </c>
       <c r="E46" t="n">
-        <v>341.8415741575409</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F46" t="n">
-        <v>341.8415741575409</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G46" t="n">
-        <v>341.8415741575409</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H46" t="n">
-        <v>192.2341189629975</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T46" t="n">
-        <v>1365.738230664876</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U46" t="n">
-        <v>1365.738230664876</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V46" t="n">
-        <v>1365.738230664876</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W46" t="n">
-        <v>1086.66856617375</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="X46" t="n">
-        <v>925.3703516011041</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="Y46" t="n">
-        <v>700.6346529898688</v>
+        <v>4163.563440859426</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7984,22 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>593.8823835359372</v>
+        <v>269.4773261669552</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8064,19 +8066,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>395.5690244730515</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8216,25 +8218,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>537.3610023606261</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>337.1293820533569</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8292,16 +8294,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M6" t="n">
-        <v>236.9512395019908</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>555.4891820648243</v>
+        <v>457.6255605606128</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8529,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>363.9611095948391</v>
+        <v>574.6635313430239</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>531.7269504661756</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8705,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8771,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>841.9067396726141</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8939,16 +8941,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.212962080219</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,16 +9011,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>574.6635313430244</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>713.8858861212706</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9726,10 +9728,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9957,19 +9959,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>889.5795680239546</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10194,19 +10196,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>174.1409094511112</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10431,16 +10433,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10668,22 +10670,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>351.0253904607681</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10829,7 +10831,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10905,19 +10907,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>673.412716993023</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>578.3832942478874</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11078,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>176.7732988419765</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>428.4535592834678</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11312,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>134.5066803135624</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,13 +11384,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>531.1743980747686</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>329.6637267648915</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -23473,16 +23475,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>235.4099634233588</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.06664624006493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>75.33585740221201</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>96.14494677818658</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>99.27352434754019</v>
+        <v>170.6465874313898</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>102.505994015888</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>45.84716204233317</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>20.89593706650237</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>70.53872813385533</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -23950,13 +23952,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>62.56142803888758</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>141.609936976766</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>186.138420582096</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>155.5957717919442</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>8.893130557884319</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>88.57144222862047</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>42.06483528720065</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>87.71957334494932</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>128.1042072349531</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>49.19646844041387</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>65.84183918551237</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>108.096802717004</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>21.7449001676996</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>23.12472639190906</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25138,7 +25140,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25163,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>62.5614280388869</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>162.4879357668927</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25318,19 +25320,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25365,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25397,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>32.28731256679831</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
     </row>
     <row r="39">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>84.7686497884998</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>92.49095273602873</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25628,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>382.6970732070776</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -25849,7 +25851,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0.7201841285302066</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>77.37040466941339</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>57.97083337848026</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,19 +26076,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>76.27519109199383</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>644898.1953384809</v>
+        <v>649256.8568643199</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>512491.1901191659</v>
+        <v>579542.1475003519</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>512491.1901191659</v>
+        <v>579542.147500352</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>579542.1475003519</v>
+        <v>579542.147500352</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>579542.147500352</v>
+        <v>579542.1475003519</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>579542.1475003519</v>
+        <v>579542.147500352</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>579542.1475003519</v>
+        <v>579542.1475003517</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>579542.147500352</v>
+        <v>579542.1475003518</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>512491.1901191658</v>
+        <v>579542.1475003519</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>512491.1901191659</v>
+        <v>579542.147500352</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504935.4184006166</v>
+        <v>504935.4184006164</v>
       </c>
       <c r="C2" t="n">
-        <v>504935.4184006166</v>
+        <v>504935.4184006164</v>
       </c>
       <c r="D2" t="n">
-        <v>504935.4184006166</v>
+        <v>504935.4184006167</v>
       </c>
       <c r="E2" t="n">
-        <v>397017.3065685161</v>
+        <v>448955.4346793955</v>
       </c>
       <c r="F2" t="n">
-        <v>397017.3065685162</v>
+        <v>448955.4346793955</v>
       </c>
       <c r="G2" t="n">
         <v>448955.4346793953</v>
       </c>
       <c r="H2" t="n">
+        <v>448955.4346793955</v>
+      </c>
+      <c r="I2" t="n">
+        <v>448955.4346793953</v>
+      </c>
+      <c r="J2" t="n">
         <v>448955.4346793954</v>
-      </c>
-      <c r="I2" t="n">
-        <v>448955.4346793955</v>
-      </c>
-      <c r="J2" t="n">
-        <v>448955.4346793955</v>
       </c>
       <c r="K2" t="n">
         <v>448955.4346793954</v>
       </c>
       <c r="L2" t="n">
-        <v>448955.4346793955</v>
+        <v>448955.4346793954</v>
       </c>
       <c r="M2" t="n">
         <v>448955.4346793955</v>
       </c>
       <c r="N2" t="n">
-        <v>448955.4346793954</v>
+        <v>448955.4346793955</v>
       </c>
       <c r="O2" t="n">
-        <v>397017.3065685162</v>
+        <v>448955.4346793953</v>
       </c>
       <c r="P2" t="n">
-        <v>397017.3065685161</v>
+        <v>448955.4346793955</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>164775.2337200961</v>
+        <v>71864.46850972369</v>
       </c>
       <c r="E4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="F4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="P4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99835.60970890889</v>
+        <v>99835.60970890874</v>
       </c>
       <c r="C6" t="n">
-        <v>274791.119602023</v>
+        <v>274791.1196020228</v>
       </c>
       <c r="D6" t="n">
-        <v>274791.1196020229</v>
+        <v>162242.4096256243</v>
       </c>
       <c r="E6" t="n">
-        <v>198334.3383635042</v>
+        <v>335655.896516524</v>
       </c>
       <c r="F6" t="n">
-        <v>325689.0051532549</v>
+        <v>362624.8506974583</v>
       </c>
       <c r="G6" t="n">
-        <v>303163.3960114963</v>
+        <v>362624.8506974581</v>
       </c>
       <c r="H6" t="n">
-        <v>362624.8506974581</v>
+        <v>362624.8506974583</v>
       </c>
       <c r="I6" t="n">
-        <v>362624.8506974582</v>
+        <v>362624.850697458</v>
       </c>
       <c r="J6" t="n">
-        <v>226030.0498915632</v>
+        <v>226030.0498915631</v>
       </c>
       <c r="K6" t="n">
         <v>362624.8506974581</v>
       </c>
       <c r="L6" t="n">
+        <v>222625.5398327054</v>
+      </c>
+      <c r="M6" t="n">
+        <v>340115.5859234108</v>
+      </c>
+      <c r="N6" t="n">
+        <v>362624.8506974583</v>
+      </c>
+      <c r="O6" t="n">
+        <v>362624.8506974581</v>
+      </c>
+      <c r="P6" t="n">
         <v>362624.8506974582</v>
-      </c>
-      <c r="M6" t="n">
-        <v>256330.0386795835</v>
-      </c>
-      <c r="N6" t="n">
-        <v>362624.8506974581</v>
-      </c>
-      <c r="O6" t="n">
-        <v>325689.005153255</v>
-      </c>
-      <c r="P6" t="n">
-        <v>325689.0051532548</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>160.5105722195418</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>223.1738033870839</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27545,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>26.55377812687055</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>312.0860374294323</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>103.6834669398974</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.702222255928774</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27828,16 +27830,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>393.0160384451234</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>35.07776118644358</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>137.5569360066354</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>8.893130557884604</v>
       </c>
     </row>
     <row r="11">
@@ -34702,22 +34704,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>500.9700927793178</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>338.004740734634</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>506.6900639491206</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34936,25 +34938,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>441.8756042977813</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>244.2170912967376</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M6" t="n">
-        <v>179.3869557635734</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>460.0037840019794</v>
+        <v>362.140162497768</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>306.2096305948391</v>
+        <v>516.9120523430239</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>436.2415524033308</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35425,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>788.7133462788642</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.0231864544359</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>656.1344071212706</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L23" t="n">
         <v>719.7892927396343</v>
@@ -36446,10 +36448,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>832.0152842855372</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M29" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N29" t="n">
         <v>760.7889056955737</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>120.9475160573612</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>294.9108666499191</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>617.2981931821739</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>482.8978961850426</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37798,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>120.9475160573611</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8892755450504</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>40.8573170326782</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>473.6101143363513</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2397861.701203164</v>
+        <v>2396549.055747585</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029741</v>
+        <v>5301029.811029739</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>188.1073453294445</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>84.62560901147528</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>29.06736062834933</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -882,7 +882,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>88.33325317843779</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>247.8765136623598</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>65.42520756919141</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>142.5359303380062</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>7.403252162746612</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1147,7 +1147,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>161.7257111612966</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059086</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.5952110672383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>119.8051733265733</v>
+        <v>243.833185100996</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1530,16 +1530,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>111.7623445416556</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>35.73692418651449</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>170.7879507721958</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.88126300749902</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>267.38583728833</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>39.64108301376439</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>334.3658782825033</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>143.5378501502024</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2010,10 +2010,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -2022,7 +2022,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>13.88126300749902</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>372.3536886992977</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -2140,10 +2140,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>283.7777510779965</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>90.1405472641183</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>27.77250173713467</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>267.6295396397329</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>62.11885619953507</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>9.982115371767776</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>22.92681701721074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8578625689825</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>81.66286536895133</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2797,7 +2797,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>351.2228221674562</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2809,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>92.0578590448067</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>307.6908193123841</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>256.845439587428</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>354.2586798869624</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -3328,7 +3328,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>376.8395006836604</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>29.06736062834964</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>42.43741174507654</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>39.93142548241784</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>262.2537570519889</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>143.4694707828847</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>84.73179601342665</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>123.8394724344234</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>101.3308736018835</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>973.8117188815472</v>
+        <v>1475.175459452008</v>
       </c>
       <c r="C2" t="n">
-        <v>967.7275322352214</v>
+        <v>1469.091272805682</v>
       </c>
       <c r="D2" t="n">
-        <v>967.3040063686859</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E2" t="n">
-        <v>957.0041949259867</v>
+        <v>864.743637797887</v>
       </c>
       <c r="F2" t="n">
-        <v>535.9737828796742</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
-        <v>127.2454987725064</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>1592.293889628578</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N2" t="n">
-        <v>1767.09327468481</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.766722221062</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>1380.929167557543</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W2" t="n">
-        <v>1380.929167557543</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="X2" t="n">
-        <v>1380.929167557543</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="Y2" t="n">
-        <v>979.9924945056326</v>
+        <v>1481.356235076093</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>81.91922121582792</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M3" t="n">
-        <v>690.3841994575342</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N3" t="n">
-        <v>690.3841994575342</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="G4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W4" t="n">
-        <v>224.1971997769844</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X4" t="n">
-        <v>41.76508562960205</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.76508562960205</v>
+        <v>71.12605596126804</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1063.485050816083</v>
+        <v>1696.412113819451</v>
       </c>
       <c r="C5" t="n">
-        <v>653.3604601293526</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D5" t="n">
-        <v>564.1349518683044</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E5" t="n">
-        <v>149.794736385201</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L5" t="n">
         <v>733.4074053521598</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1473.706230480572</v>
+        <v>1702.592889443536</v>
       </c>
       <c r="W5" t="n">
-        <v>1473.706230480572</v>
+        <v>1702.592889443536</v>
       </c>
       <c r="X5" t="n">
-        <v>1473.706230480572</v>
+        <v>1702.592889443536</v>
       </c>
       <c r="Y5" t="n">
-        <v>1473.706230480572</v>
+        <v>1702.592889443536</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,19 +4652,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767163</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767163</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767163</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1014.752890035065</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="C7" t="n">
-        <v>843.6595175967814</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="D7" t="n">
-        <v>684.1648729196913</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="E7" t="n">
-        <v>523.2540577880108</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="F7" t="n">
-        <v>358.622931898602</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>1427.188295040345</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="Y7" t="n">
-        <v>1202.452596429109</v>
+        <v>224.1971997769844</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1740.93911629311</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.81452560638</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1323.336493118757</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>908.9962776356538</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>487.9658655893414</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
         <v>483.2779855225776</v>
@@ -4807,7 +4807,7 @@
         <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441626</v>
+        <v>524.2900591047148</v>
       </c>
       <c r="L8" t="n">
         <v>1236.881458916953</v>
@@ -4831,25 +4831,25 @@
         <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.605198162539</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>3943.398714109398</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>3686.338222368908</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="V8" t="n">
-        <v>3336.500667705388</v>
+        <v>4137.526969165108</v>
       </c>
       <c r="W8" t="n">
-        <v>2952.740366840557</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="X8" t="n">
-        <v>2552.096969009509</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>2151.160295957599</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736876</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>747.105897386657</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="M9" t="n">
-        <v>747.105897386657</v>
+        <v>1258.848829206251</v>
       </c>
       <c r="N9" t="n">
-        <v>1620.763989498275</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="O9" t="n">
         <v>2132.506921317869</v>
@@ -4986,25 +4986,25 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1615.416622088219</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1375.867883064921</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1093.069735611045</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="V10" t="n">
-        <v>819.1839905505669</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="W10" t="n">
-        <v>540.1143260594413</v>
+        <v>268.4498396147512</v>
       </c>
       <c r="X10" t="n">
-        <v>301.7704639191247</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="Y10" t="n">
         <v>86.01772546736876</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2238.282892603803</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5074,19 +5074,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4183.681998679601</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="V11" t="n">
-        <v>3833.844444016082</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W11" t="n">
-        <v>3450.08414315125</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X11" t="n">
-        <v>3049.440745320202</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y11" t="n">
-        <v>2648.504072268292</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.13812587521</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N12" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>1914.095216421104</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>749.3736558270855</v>
+        <v>367.0457699350868</v>
       </c>
       <c r="C13" t="n">
-        <v>578.280283388802</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D13" t="n">
-        <v>418.7856387117121</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1436.250826191383</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>1436.250826191383</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V13" t="n">
-        <v>1400.152922972682</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W13" t="n">
-        <v>1400.152922972682</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="X13" t="n">
-        <v>1161.809060832365</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.0733622211299</v>
+        <v>554.7454763291312</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5308,22 +5308,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V14" t="n">
-        <v>4047.636833531609</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.992640523532</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N15" t="n">
-        <v>1627.989961721529</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5463,25 +5463,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1608.62111652612</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1608.62111652612</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>1608.62111652612</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>1608.62111652612</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W16" t="n">
-        <v>1608.62111652612</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X16" t="n">
-        <v>1370.277254385804</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2502.881125286859</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>2092.756534600129</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1688.29260469319</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1273.952389210086</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>852.921977163774</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>444.1936930566062</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>133.2851956843242</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5554,13 +5554,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X17" t="n">
-        <v>3314.038978003258</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2913.102304951348</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5603,13 +5603,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>740.6895610749962</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>569.5961886367127</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1608.62111652612</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1608.62111652612</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1608.62111652612</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>1608.62111652612</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>1608.62111652612</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W19" t="n">
-        <v>1608.62111652612</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X19" t="n">
-        <v>1370.277254385804</v>
+        <v>1110.412987110678</v>
       </c>
       <c r="Y19" t="n">
-        <v>1370.277254385804</v>
+        <v>885.6772884994431</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G20" t="n">
         <v>490.5039577458317</v>
@@ -5788,16 +5788,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>592.7987223006619</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>1435.775802995229</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1032.970092797216</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>861.8767203589325</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>702.3820756818425</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>541.471260550162</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>376.8401346607533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>1257.705791408451</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>1257.705791408451</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>1032.970092797216</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2324.444211508952</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1914.319620822223</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1509.855690915283</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1095.51547543218</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>674.4850633858673</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
         <v>404.1521950629048</v>
@@ -5992,7 +5992,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4269.84331758475</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3920.005762921231</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3536.245462056399</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3135.602064225352</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2734.665391173442</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>369.2801436008075</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="C25" t="n">
-        <v>369.2801436008075</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="D25" t="n">
-        <v>369.2801436008075</v>
+        <v>537.7509497924339</v>
       </c>
       <c r="E25" t="n">
-        <v>369.2801436008075</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F25" t="n">
-        <v>369.2801436008075</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H25" t="n">
         <v>209.5897435862967</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U25" t="n">
-        <v>1111.429368843485</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V25" t="n">
-        <v>1111.429368843485</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W25" t="n">
-        <v>832.3597043523594</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X25" t="n">
-        <v>594.0158422120428</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="Y25" t="n">
-        <v>369.2801436008075</v>
+        <v>600.4972691859036</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2144.727460069145</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C26" t="n">
-        <v>1734.602869382415</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>116.4020987181084</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6265,13 +6265,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3356.528710616592</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X26" t="n">
-        <v>2955.885312785545</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y26" t="n">
-        <v>2554.948639733635</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>606.3160674671693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>523.8283246702488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>523.8283246702488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8283246702488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1297.821136963575</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U28" t="n">
-        <v>1297.821136963575</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>1297.821136963575</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>1018.751472472449</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>1018.751472472449</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>794.0157738612137</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D29" t="n">
-        <v>1337.342609327206</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E29" t="n">
-        <v>923.0023938441032</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F29" t="n">
-        <v>501.9719817977906</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3868.173511609275</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3868.173511609275</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3775.185775200379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3614.274960068698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>3868.173511609275</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V31" t="n">
-        <v>3868.173511609275</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W31" t="n">
-        <v>3868.173511609275</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X31" t="n">
-        <v>3868.173511609275</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y31" t="n">
-        <v>3868.173511609275</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2359.298219196301</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.173628509571</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1544.709698602632</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
         <v>1233.910891216385</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>3954.85977060858</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3571.099469743748</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>3170.456071912701</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2769.519398860791</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>851.989530876386</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>851.989530876386</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>851.989530876386</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>851.989530876386</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2485.998028320643</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.873437633913</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1671.409507726974</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1257.069292243871</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W35" t="n">
-        <v>3697.79927886809</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3297.155881037042</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2896.219207985132</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7122,25 +7122,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>1579.776521841699</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U37" t="n">
-        <v>1296.978374387823</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V37" t="n">
-        <v>1023.092629327345</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W37" t="n">
-        <v>744.0229648362191</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X37" t="n">
-        <v>505.6791026959025</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y37" t="n">
-        <v>280.9434040846672</v>
+        <v>122.6046680222891</v>
       </c>
     </row>
     <row r="38">
@@ -7201,22 +7201,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
         <v>2873.060806957647</v>
@@ -7259,19 +7259,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>596.2185870927716</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1297.821136963575</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1015.022989509699</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>741.1372444492208</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W40" t="n">
-        <v>741.1372444492208</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X40" t="n">
-        <v>596.2185870927716</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y40" t="n">
-        <v>596.2185870927716</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2237.518802661711</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>1827.394211974981</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>1422.930282068041</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E41" t="n">
-        <v>1008.590066584938</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F41" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>178.8313704314578</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>212.9817385874103</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7599,22 +7599,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.642594311473</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.642594311473</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X43" t="n">
-        <v>1595.012952997039</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y43" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4401.813433128853</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4144.752941388363</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4163.563440859426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>3992.470068421143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>3832.975423744052</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>4388.299139470661</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>4388.299139470661</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>4388.299139470661</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y46" t="n">
-        <v>4163.563440859426</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>269.4773261669552</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>91.92897171537948</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>564.4415429491206</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>249.8886267436438</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>537.3610023606261</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
@@ -8300,22 +8300,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>562.8045877599694</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>391.1981341283841</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8455,10 +8455,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>275.0827150970472</v>
       </c>
       <c r="L8" t="n">
-        <v>457.6255605606128</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8531,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>587.0713442545285</v>
       </c>
       <c r="N9" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>574.6635313430239</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8768,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>616.6125049502444</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -9011,25 +9011,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O15" t="n">
-        <v>574.6635313430244</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9251,16 +9251,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9415,7 +9415,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P20" t="n">
         <v>628.1510783507341</v>
@@ -9485,22 +9485,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>560.7155587704844</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
@@ -9725,19 +9725,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533855</v>
+        <v>293.7680303325975</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10831,7 +10831,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10907,22 +10907,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>491.4496229341746</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>176.7732988419765</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11153,16 +11153,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>134.6847134965117</v>
+        <v>10.656701722089</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.62009417224502</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>235.4099634233588</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>170.6465874313898</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>8.893130557884319</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>45.84716204233317</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>62.56142803888747</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>42.2848591799015</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>70.53872813385533</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -23949,7 +23949,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>37.84312462897452</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>62.56142803888758</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>186.138420582096</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>194.7158398879883</v>
       </c>
     </row>
     <row r="23">
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>137.0114616263633</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>95.780842030784</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>155.5957717919442</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>62.56142803888683</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>42.06483528720065</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>87.71957334494932</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24612,16 +24612,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>65.84183918551237</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>102.5059940158881</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>23.12472639190906</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>62.5614280388869</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>3.083197172522716</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.7553487017543</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25362,10 +25362,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>194.7158398879884</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25560,10 +25560,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>92.49095273602873</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>32.28731256679839</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>96.14494677818635</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>57.97083337848026</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>579542.1475003519</v>
+        <v>579542.147500352</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>579542.147500352</v>
+        <v>579542.1475003521</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>579542.1475003517</v>
+        <v>579542.147500352</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>579542.1475003518</v>
+        <v>579542.147500352</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>579542.1475003519</v>
+        <v>579542.147500352</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504935.4184006164</v>
+        <v>504935.4184006169</v>
       </c>
       <c r="C2" t="n">
-        <v>504935.4184006164</v>
+        <v>504935.4184006165</v>
       </c>
       <c r="D2" t="n">
         <v>504935.4184006167</v>
       </c>
       <c r="E2" t="n">
+        <v>448955.4346793956</v>
+      </c>
+      <c r="F2" t="n">
+        <v>448955.4346793953</v>
+      </c>
+      <c r="G2" t="n">
         <v>448955.4346793955</v>
-      </c>
-      <c r="F2" t="n">
-        <v>448955.4346793955</v>
-      </c>
-      <c r="G2" t="n">
-        <v>448955.4346793953</v>
       </c>
       <c r="H2" t="n">
         <v>448955.4346793955</v>
       </c>
       <c r="I2" t="n">
+        <v>448955.4346793956</v>
+      </c>
+      <c r="J2" t="n">
         <v>448955.4346793953</v>
-      </c>
-      <c r="J2" t="n">
-        <v>448955.4346793954</v>
       </c>
       <c r="K2" t="n">
         <v>448955.4346793954</v>
       </c>
       <c r="L2" t="n">
-        <v>448955.4346793954</v>
+        <v>448955.4346793955</v>
       </c>
       <c r="M2" t="n">
-        <v>448955.4346793955</v>
+        <v>448955.4346793956</v>
       </c>
       <c r="N2" t="n">
         <v>448955.4346793955</v>
       </c>
       <c r="O2" t="n">
-        <v>448955.4346793953</v>
+        <v>448955.4346793955</v>
       </c>
       <c r="P2" t="n">
         <v>448955.4346793955</v>
@@ -26423,7 +26423,7 @@
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>71864.46850972369</v>
+        <v>71864.46850972364</v>
       </c>
       <c r="E4" t="n">
         <v>15465.37373706398</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99835.60970890874</v>
+        <v>99835.60970890912</v>
       </c>
       <c r="C6" t="n">
-        <v>274791.1196020228</v>
+        <v>274791.1196020229</v>
       </c>
       <c r="D6" t="n">
         <v>162242.4096256243</v>
       </c>
       <c r="E6" t="n">
-        <v>335655.896516524</v>
+        <v>335475.315923875</v>
       </c>
       <c r="F6" t="n">
-        <v>362624.8506974583</v>
+        <v>362444.2701048089</v>
       </c>
       <c r="G6" t="n">
-        <v>362624.8506974581</v>
+        <v>362444.2701048091</v>
       </c>
       <c r="H6" t="n">
-        <v>362624.8506974583</v>
+        <v>362444.2701048091</v>
       </c>
       <c r="I6" t="n">
-        <v>362624.850697458</v>
+        <v>362444.2701048092</v>
       </c>
       <c r="J6" t="n">
-        <v>226030.0498915631</v>
+        <v>225849.4692989139</v>
       </c>
       <c r="K6" t="n">
-        <v>362624.8506974581</v>
+        <v>362444.270104809</v>
       </c>
       <c r="L6" t="n">
-        <v>222625.5398327054</v>
+        <v>222444.9592400564</v>
       </c>
       <c r="M6" t="n">
-        <v>340115.5859234108</v>
+        <v>339935.0053307618</v>
       </c>
       <c r="N6" t="n">
-        <v>362624.8506974583</v>
+        <v>362444.2701048091</v>
       </c>
       <c r="O6" t="n">
-        <v>362624.8506974581</v>
+        <v>362444.2701048091</v>
       </c>
       <c r="P6" t="n">
-        <v>362624.8506974582</v>
+        <v>362444.2701048091</v>
       </c>
     </row>
   </sheetData>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>212.3119452784256</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>223.1738033870839</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>136.5105265353627</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>312.0860374294323</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>98.46266545452428</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>82.68617307340649</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>93.42449318090726</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>393.0160384451234</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>184.6134679555875</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55.35263051300481</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.893130557884604</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>176.5650354103359</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>40.55973291537946</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>506.6900639491206</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>441.8756042977813</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
@@ -35020,22 +35020,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35175,10 +35175,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>185.9463254238301</v>
       </c>
       <c r="L8" t="n">
-        <v>362.140162497768</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>529.5070605161111</v>
       </c>
       <c r="N9" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>516.9120523430239</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O15" t="n">
-        <v>516.9120523430244</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P20" t="n">
         <v>534.50171506985</v>
@@ -36205,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L23" t="n">
         <v>719.7892927396343</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596355</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>120.9475160573611</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
